--- a/exports/students_export_2025-08-30_20-18-36.xlsx
+++ b/exports/students_export_2025-08-30_20-18-36.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LORAINE\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F0517-181F-47F1-BE11-C02EC85B0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Students Export" sheetId="1" r:id="rId4"/>
+    <sheet name="Students Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="179">
   <si>
     <t>LRN</t>
   </si>
@@ -95,461 +100,477 @@
     <t>09123456789</t>
   </si>
   <si>
+    <t>615972384720.png</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>james.brown@email.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2006-01-30</t>
+  </si>
+  <si>
+    <t>654 Birch Ln</t>
+  </si>
+  <si>
+    <t>Lisa Brown</t>
+  </si>
+  <si>
+    <t>641902738459.png</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>sophia.chen@email.com</t>
+  </si>
+  <si>
+    <t>2005-09-05</t>
+  </si>
+  <si>
+    <t>321 Elm St</t>
+  </si>
+  <si>
+    <t>David Chen</t>
+  </si>
+  <si>
+    <t>378209145376.png</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>liam.davis@email.com</t>
+  </si>
+  <si>
+    <t>2006-01-12</t>
+  </si>
+  <si>
+    <t>412 Example St</t>
+  </si>
+  <si>
+    <t>Lisa Davis</t>
+  </si>
+  <si>
+    <t>548790321684.png</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>john.doe@email.com</t>
+  </si>
+  <si>
+    <t>2005-03-15</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>profilePhoto2.png</t>
+  </si>
+  <si>
+    <t>593201847265.png</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>benjamin.garcia@email.com</t>
+  </si>
+  <si>
+    <t>2005-12-02</t>
+  </si>
+  <si>
+    <t>130 Example St</t>
+  </si>
+  <si>
+    <t>David Garcia</t>
+  </si>
+  <si>
+    <t>418515383035.png</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>isabella.garcia@email.com</t>
+  </si>
+  <si>
+    <t>2005-06-17</t>
+  </si>
+  <si>
+    <t>741 Ash St</t>
+  </si>
+  <si>
+    <t>Carlos Garcia</t>
+  </si>
+  <si>
+    <t>profilePhoto18.png</t>
+  </si>
+  <si>
+    <t>592841076213.png</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>ava.johnson@email.com</t>
+  </si>
+  <si>
+    <t>2006-04-25</t>
+  </si>
+  <si>
+    <t>258 Spruce Ct</t>
+  </si>
+  <si>
+    <t>Robert Johnson</t>
+  </si>
+  <si>
+    <t>profilePhoto3.png</t>
+  </si>
+  <si>
+    <t>704193826574.png</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>noah.johnson@email.com</t>
+  </si>
+  <si>
+    <t>2005-11-24</t>
+  </si>
+  <si>
+    <t>634 Example St</t>
+  </si>
+  <si>
+    <t>John Johnson</t>
+  </si>
+  <si>
+    <t>745976379835.png</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>olivia.johnson@email.com</t>
+  </si>
+  <si>
+    <t>2005-06-16</t>
+  </si>
+  <si>
+    <t>187 Example St</t>
+  </si>
+  <si>
+    <t>309878613646.png</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>michael.lee@email.com</t>
+  </si>
+  <si>
+    <t>2004-11-10</t>
+  </si>
+  <si>
+    <t>789 Pine Rd</t>
+  </si>
+  <si>
+    <t>Susan Lee</t>
+  </si>
+  <si>
+    <t>profilePhoto4.png</t>
+  </si>
+  <si>
+    <t>127463980521.png</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>ethan.martinez@email.com</t>
+  </si>
+  <si>
+    <t>2004-08-09</t>
+  </si>
+  <si>
+    <t>369 Willow Rd</t>
+  </si>
+  <si>
+    <t>Maria Martinez</t>
+  </si>
+  <si>
+    <t>profilePhoto12.png</t>
+  </si>
+  <si>
+    <t>386517204963.png</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>william.martinez@email.com</t>
+  </si>
+  <si>
+    <t>2006-03-22</t>
+  </si>
+  <si>
+    <t>890 Example St</t>
+  </si>
+  <si>
+    <t>John Martinez</t>
+  </si>
+  <si>
+    <t>182563283391.png</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>liam.miller@email.com</t>
+  </si>
+  <si>
+    <t>2005-04-22</t>
+  </si>
+  <si>
+    <t>567 Example St</t>
+  </si>
+  <si>
+    <t>Jane Miller</t>
+  </si>
+  <si>
+    <t>196853737107.png</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>emma.smith@email.com</t>
+  </si>
+  <si>
+    <t>2005-10-19</t>
+  </si>
+  <si>
+    <t>823 Example St</t>
+  </si>
+  <si>
+    <t>Lisa Smith</t>
+  </si>
+  <si>
+    <t>304958671230.png</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>2006-07-22</t>
+  </si>
+  <si>
+    <t>456 Oak Ave</t>
+  </si>
+  <si>
+    <t>Tom Smith</t>
+  </si>
+  <si>
+    <t>profilePhoto1.png</t>
+  </si>
+  <si>
+    <t>904728163059.png</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>olivia.smith@email.com</t>
+  </si>
+  <si>
+    <t>2005-08-25</t>
+  </si>
+  <si>
+    <t>345 Example St</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>901753824519.png</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>william.taylor@email.com</t>
+  </si>
+  <si>
+    <t>2005-12-18</t>
+  </si>
+  <si>
+    <t>147 Maple Ave</t>
+  </si>
+  <si>
+    <t>Emily Taylor</t>
+  </si>
+  <si>
+    <t>profilePhoto16.png</t>
+  </si>
+  <si>
+    <t>219847365098.png</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>benjamin.williams@email.com</t>
+  </si>
+  <si>
+    <t>2005-09-03</t>
+  </si>
+  <si>
+    <t>764 Example St</t>
+  </si>
+  <si>
+    <t>John Williams</t>
+  </si>
+  <si>
+    <t>872639105387.png</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomez	</t>
+  </si>
+  <si>
+    <t>olivia.wilson@email.com</t>
+  </si>
+  <si>
+    <t>2004-05-12</t>
+  </si>
+  <si>
+    <t>987 Cedar Dr</t>
+  </si>
+  <si>
+    <t>Mike Wilson</t>
+  </si>
+  <si>
+    <t>profilePhoto19.png</t>
+  </si>
+  <si>
+    <t>850174932610.png</t>
+  </si>
+  <si>
+    <t>profilePhoto5.png</t>
+  </si>
+  <si>
+    <t>profilePhoto6.png</t>
+  </si>
+  <si>
+    <t>profilePhoto7.png</t>
+  </si>
+  <si>
+    <t>profilePhoto8.png</t>
+  </si>
+  <si>
+    <t>profilePhoto9.png</t>
+  </si>
+  <si>
+    <t>profilePhoto10.png</t>
+  </si>
+  <si>
+    <t>profilePhoto11.png</t>
+  </si>
+  <si>
+    <t>profilePhoto13.png</t>
+  </si>
+  <si>
+    <t>profilePhoto14.png</t>
+  </si>
+  <si>
+    <t>profilePhoto15.png</t>
+  </si>
+  <si>
     <t>no-icon.png</t>
-  </si>
-  <si>
-    <t>615972384720.png</t>
-  </si>
-  <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>james.brown@email.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2006-01-30</t>
-  </si>
-  <si>
-    <t>654 Birch Ln</t>
-  </si>
-  <si>
-    <t>Lisa Brown</t>
-  </si>
-  <si>
-    <t>profilePhoto20.png</t>
-  </si>
-  <si>
-    <t>641902738459.png</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>sophia.chen@email.com</t>
-  </si>
-  <si>
-    <t>2005-09-05</t>
-  </si>
-  <si>
-    <t>321 Elm St</t>
-  </si>
-  <si>
-    <t>David Chen</t>
-  </si>
-  <si>
-    <t>profilePhoto21.png</t>
-  </si>
-  <si>
-    <t>378209145376.png</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>liam.davis@email.com</t>
-  </si>
-  <si>
-    <t>2006-01-12</t>
-  </si>
-  <si>
-    <t>412 Example St</t>
-  </si>
-  <si>
-    <t>Lisa Davis</t>
-  </si>
-  <si>
-    <t>548790321684.png</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>john.doe@email.com</t>
-  </si>
-  <si>
-    <t>2005-03-15</t>
-  </si>
-  <si>
-    <t>123 Main St</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>profilePhoto2.png</t>
-  </si>
-  <si>
-    <t>593201847265.png</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>benjamin.garcia@email.com</t>
-  </si>
-  <si>
-    <t>2005-12-02</t>
-  </si>
-  <si>
-    <t>130 Example St</t>
-  </si>
-  <si>
-    <t>David Garcia</t>
-  </si>
-  <si>
-    <t>418515383035.png</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>isabella.garcia@email.com</t>
-  </si>
-  <si>
-    <t>2005-06-17</t>
-  </si>
-  <si>
-    <t>741 Ash St</t>
-  </si>
-  <si>
-    <t>Carlos Garcia</t>
-  </si>
-  <si>
-    <t>profilePhoto18.png</t>
-  </si>
-  <si>
-    <t>592841076213.png</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>ava.johnson@email.com</t>
-  </si>
-  <si>
-    <t>2006-04-25</t>
-  </si>
-  <si>
-    <t>258 Spruce Ct</t>
-  </si>
-  <si>
-    <t>Robert Johnson</t>
-  </si>
-  <si>
-    <t>profilePhoto3.png</t>
-  </si>
-  <si>
-    <t>704193826574.png</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>noah.johnson@email.com</t>
-  </si>
-  <si>
-    <t>2005-11-24</t>
-  </si>
-  <si>
-    <t>634 Example St</t>
-  </si>
-  <si>
-    <t>John Johnson</t>
-  </si>
-  <si>
-    <t>745976379835.png</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>olivia.johnson@email.com</t>
-  </si>
-  <si>
-    <t>2005-06-16</t>
-  </si>
-  <si>
-    <t>187 Example St</t>
-  </si>
-  <si>
-    <t>309878613646.png</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>michael.lee@email.com</t>
-  </si>
-  <si>
-    <t>2004-11-10</t>
-  </si>
-  <si>
-    <t>789 Pine Rd</t>
-  </si>
-  <si>
-    <t>Susan Lee</t>
-  </si>
-  <si>
-    <t>profilePhoto4.png</t>
-  </si>
-  <si>
-    <t>127463980521.png</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>ethan.martinez@email.com</t>
-  </si>
-  <si>
-    <t>2004-08-09</t>
-  </si>
-  <si>
-    <t>369 Willow Rd</t>
-  </si>
-  <si>
-    <t>Maria Martinez</t>
-  </si>
-  <si>
-    <t>profilePhoto12.png</t>
-  </si>
-  <si>
-    <t>386517204963.png</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>william.martinez@email.com</t>
-  </si>
-  <si>
-    <t>2006-03-22</t>
-  </si>
-  <si>
-    <t>890 Example St</t>
-  </si>
-  <si>
-    <t>John Martinez</t>
-  </si>
-  <si>
-    <t>182563283391.png</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>liam.miller@email.com</t>
-  </si>
-  <si>
-    <t>2005-04-22</t>
-  </si>
-  <si>
-    <t>567 Example St</t>
-  </si>
-  <si>
-    <t>Jane Miller</t>
-  </si>
-  <si>
-    <t>196853737107.png</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>emma.smith@email.com</t>
-  </si>
-  <si>
-    <t>2005-10-19</t>
-  </si>
-  <si>
-    <t>823 Example St</t>
-  </si>
-  <si>
-    <t>Lisa Smith</t>
-  </si>
-  <si>
-    <t>304958671230.png</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>2006-07-22</t>
-  </si>
-  <si>
-    <t>456 Oak Ave</t>
-  </si>
-  <si>
-    <t>Tom Smith</t>
-  </si>
-  <si>
-    <t>profilePhoto1.png</t>
-  </si>
-  <si>
-    <t>904728163059.png</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>olivia.smith@email.com</t>
-  </si>
-  <si>
-    <t>2005-08-25</t>
-  </si>
-  <si>
-    <t>345 Example St</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>901753824519.png</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>william.taylor@email.com</t>
-  </si>
-  <si>
-    <t>2005-12-18</t>
-  </si>
-  <si>
-    <t>147 Maple Ave</t>
-  </si>
-  <si>
-    <t>Emily Taylor</t>
-  </si>
-  <si>
-    <t>profilePhoto16.png</t>
-  </si>
-  <si>
-    <t>219847365098.png</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>benjamin.williams@email.com</t>
-  </si>
-  <si>
-    <t>2005-09-03</t>
-  </si>
-  <si>
-    <t>764 Example St</t>
-  </si>
-  <si>
-    <t>John Williams</t>
-  </si>
-  <si>
-    <t>872639105387.png</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Gomez_x0009_</t>
-  </si>
-  <si>
-    <t>olivia.wilson@email.com</t>
-  </si>
-  <si>
-    <t>2004-05-12</t>
-  </si>
-  <si>
-    <t>987 Cedar Dr</t>
-  </si>
-  <si>
-    <t>Mike Wilson</t>
-  </si>
-  <si>
-    <t>profilePhoto19.png</t>
-  </si>
-  <si>
-    <t>850174932610.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -603,28 +624,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="1" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="1" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -914,36 +943,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:O20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12" customWidth="true" style="0"/>
-    <col min="9" max="9" width="30" customWidth="true" style="0"/>
-    <col min="10" max="10" width="25" customWidth="true" style="0"/>
-    <col min="11" max="11" width="25" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" customWidth="true" style="0"/>
-    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>615972384720</v>
       </c>
@@ -1027,17 +1050,17 @@
       <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>641902738459</v>
       </c>
@@ -1045,28 +1068,28 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>24</v>
@@ -1074,46 +1097,46 @@
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
+      <c r="M3" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>378209145376</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>24</v>
@@ -1121,46 +1144,46 @@
       <c r="L4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>45</v>
+      <c r="M4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>548790321684</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>24</v>
@@ -1168,46 +1191,46 @@
       <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
+      <c r="M5" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>593201847265</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>24</v>
@@ -1215,46 +1238,46 @@
       <c r="L6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>61</v>
+      <c r="M6" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>418515383035</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>24</v>
@@ -1262,46 +1285,46 @@
       <c r="L7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
+      <c r="M7" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>592841076213</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>24</v>
@@ -1309,46 +1332,46 @@
       <c r="L8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>76</v>
+      <c r="M8" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>704193826574</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>24</v>
@@ -1356,46 +1379,46 @@
       <c r="L9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>84</v>
+      <c r="M9" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>745976379835</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>24</v>
@@ -1403,46 +1426,46 @@
       <c r="L10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>26</v>
+      <c r="M10" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>309878613646</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>24</v>
@@ -1450,46 +1473,46 @@
       <c r="L11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>26</v>
+      <c r="M11" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>127463980521</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>24</v>
@@ -1497,46 +1520,46 @@
       <c r="L12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>105</v>
+      <c r="M12" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>386517204963</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>24</v>
@@ -1545,45 +1568,45 @@
         <v>25</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>182563283391</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>24</v>
@@ -1592,45 +1615,45 @@
         <v>25</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>196853737107</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>24</v>
@@ -1639,45 +1662,45 @@
         <v>25</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>304958671230</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>24</v>
@@ -1686,45 +1709,45 @@
         <v>25</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>904728163059</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>24</v>
@@ -1733,45 +1756,45 @@
         <v>25</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>901753824519</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>24</v>
@@ -1780,45 +1803,45 @@
         <v>25</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>219847365098</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>24</v>
@@ -1827,45 +1850,45 @@
         <v>25</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>872639105387</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>24</v>
@@ -1874,45 +1897,45 @@
         <v>25</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>850174932610</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1920,19 +1943,15 @@
       <c r="L21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>